--- a/Lines/Tram.xlsx
+++ b/Lines/Tram.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_08B575F4DE428E0F6235547658BD8E7894719682" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hardy/projects/tube-map/Lines/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADAC311-03EF-A148-8B04-F1387E991518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +183,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,11 +530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -556,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -570,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -584,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -598,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -612,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -626,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -640,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -654,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -668,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -682,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -696,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -710,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -724,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -738,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -752,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -766,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -780,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -794,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -808,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -822,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -836,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -850,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -864,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -878,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -892,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -906,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -920,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -934,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -948,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -962,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -976,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -990,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1032,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
